--- a/log_history/Y2_B2526_Microbiology_scanner1763191384010_0b66d1cdcb90122035a7baed67fd3843aed37634187f34ded8660e13972df8b4.xlsx
+++ b/log_history/Y2_B2526_Microbiology_scanner1763191384010_0b66d1cdcb90122035a7baed67fd3843aed37634187f34ded8660e13972df8b4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Microbiology" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y2_B2526_Microbiology_scanner1763191384010_0b66d1cdcb90122035a7baed67fd3843aed37634187f34ded8660e13972df8b4.xlsx
+++ b/log_history/Y2_B2526_Microbiology_scanner1763191384010_0b66d1cdcb90122035a7baed67fd3843aed37634187f34ded8660e13972df8b4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Microbiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
